--- a/hs15/fillcap/mess/mess02/fluidlevel_linearity.xlsx
+++ b/hs15/fillcap/mess/mess02/fluidlevel_linearity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plot" sheetId="2" r:id="rId1"/>
@@ -1525,7 +1525,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
